--- a/biology/Botanique/Ehitajate_tee/Ehitajate_tee.xlsx
+++ b/biology/Botanique/Ehitajate_tee/Ehitajate_tee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le rue des constructeurs (en estonien : Ehitajate tee) est une rue Tallinn en Estonie[1].
+Le rue des constructeurs (en estonien : Ehitajate tee) est une rue Tallinn en Estonie.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rue est située dans les arrondissement de Nõmme, Mustamäe et Haabersti[2]. 
-Elle traverse les quartiers Nõmme, Mustamäe, Kadaka et Väike-Õismäe[3]. 
-Sa longueur est de 4728 mètres[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rue est située dans les arrondissement de Nõmme, Mustamäe et Haabersti. 
+Elle traverse les quartiers Nõmme, Mustamäe, Kadaka et Väike-Õismäe. 
+Sa longueur est de 4728 mètres.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Bâtiments de la rue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ehitajate tee 5, Université de technologie de Tallinn
 Ehitajate tee 9, immeuble
@@ -600,7 +616,9 @@
           <t>Parcs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Männipark (et) est situé entre Ehitajate tee, Sõpruse puiestee et Keskuse tänav.
 Le parc de Kandaka (et), s'étend des deux côtés de Ehitajate tee, atteignant au nord Kandaka tänav et A. H. Tammsaare tee et au sud la Eduard Vilde tänav.
@@ -632,9 +650,11 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lignes de bus n° 10, 12, 16, 23, 26, 26А, 27, 28, 33, 36, 37, 45, 61, 64 empruntent la rue[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lignes de bus n° 10, 12, 16, 23, 26, 26А, 27, 28, 33, 36, 37, 45, 61, 64 empruntent la rue.
 </t>
         </is>
       </c>
